--- a/medicine/Pharmacie/Tolvaptan/Tolvaptan.xlsx
+++ b/medicine/Pharmacie/Tolvaptan/Tolvaptan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tolvaptan est une molécule inhibant les récepteurs à la vasopressine et utilisé comme médicament dans les hyponatrémies.
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur non protidique des récepteurs à la vasopressine, avec une affinité particulière pour les récepteurs V2[2]. Par ce biais, il augmente la diurèse aqueuse et augmente la concentration sanguine en sodium. 
-La prise chronique conserve son efficacité sur la natrémie pendant plusieurs années[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur non protidique des récepteurs à la vasopressine, avec une affinité particulière pour les récepteurs V2. Par ce biais, il augmente la diurèse aqueuse et augmente la concentration sanguine en sodium. 
+La prise chronique conserve son efficacité sur la natrémie pendant plusieurs années.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La demi-vie est comprise entre 10 et 12 h. La molécule est métabolisée par le cytochrome P450 avec une excrétion urinaire réduite[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La demi-vie est comprise entre 10 et 12 h. La molécule est métabolisée par le cytochrome P450 avec une excrétion urinaire réduite.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont en rapport avec l'augmentation de la diurèse avec une sécheresse de la bouche, une constipation, une hypotension orthostatique. Rarement, il peut entraîner une hypernatrémie avec déshydratation[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont en rapport avec l'augmentation de la diurèse avec une sécheresse de la bouche, une constipation, une hypotension orthostatique. Rarement, il peut entraîner une hypernatrémie avec déshydratation.
 </t>
         </is>
       </c>
@@ -606,12 +624,14 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit essentiellement des hyponatrémies chroniques modérées[5]. Son utilisation n'est pas indiquée dans les hyponatrémies sévères, avec signes neurologiques, son action étant alors trop lente et trop modérée[4].
-La place vis-à-vis des autres traitements de l'hyponatrémie (restriction hydrique, régime plus salé) reste discuté[4]. 
-Dans l'insuffisance cardiaque congestive, il améliore le syndrome œdémateux[6] mais reste en cours de test dans cette indication.
-Dans la polykystose rénale type dominant, le tolvaptan semble ralentir l'évolution de la maladie[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit essentiellement des hyponatrémies chroniques modérées. Son utilisation n'est pas indiquée dans les hyponatrémies sévères, avec signes neurologiques, son action étant alors trop lente et trop modérée.
+La place vis-à-vis des autres traitements de l'hyponatrémie (restriction hydrique, régime plus salé) reste discuté. 
+Dans l'insuffisance cardiaque congestive, il améliore le syndrome œdémateux mais reste en cours de test dans cette indication.
+Dans la polykystose rénale type dominant, le tolvaptan semble ralentir l'évolution de la maladie.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tolvaptan ayant un atome de carbone asymétrique est un racémique, c'est-à-dire un mélange 1: 1 des deux énantiomères suivants[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tolvaptan ayant un atome de carbone asymétrique est un racémique, c'est-à-dire un mélange 1: 1 des deux énantiomères suivants :
 </t>
         </is>
       </c>
